--- a/analises/2023/analise_descritiva/dados/sint_resumo_por_ufbr_2023.xlsx
+++ b/analises/2023/analise_descritiva/dados/sint_resumo_por_ufbr_2023.xlsx
@@ -34,7 +34,7 @@
     <t>taxa_sucesso</t>
   </si>
   <si>
-    <t>valor_sucesso</t>
+    <t>arrecadado_sucesso</t>
   </si>
   <si>
     <t>media_sucesso</t>

--- a/analises/2023/analise_descritiva/dados/sint_resumo_por_ufbr_2023.xlsx
+++ b/analises/2023/analise_descritiva/dados/sint_resumo_por_ufbr_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="44">
   <si>
     <t>geral_modalidade</t>
   </si>
@@ -47,6 +47,15 @@
   </si>
   <si>
     <t>max_sucesso</t>
+  </si>
+  <si>
+    <t>apoio_medio</t>
+  </si>
+  <si>
+    <t>contribuicoes</t>
+  </si>
+  <si>
+    <t>media_contribuicoes</t>
   </si>
   <si>
     <t>aon</t>
@@ -500,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -515,7 +524,7 @@
     <col min="11" max="11" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -549,13 +558,22 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -564,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000749063670411985</v>
+        <v>0.0749063670411985</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -584,13 +602,22 @@
       <c r="K2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -599,10 +626,10 @@
         <v>5</v>
       </c>
       <c r="E3" s="1">
-        <v>0.005243445692883895</v>
+        <v>0.5243445692883896</v>
       </c>
       <c r="F3" s="1">
-        <v>0.7142857142857143</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="G3" s="2">
         <v>55859.2613776098</v>
@@ -619,13 +646,22 @@
       <c r="K3" s="2">
         <v>15562.69255270254</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3">
+        <v>72.63883144032484</v>
+      </c>
+      <c r="M3">
+        <v>769</v>
+      </c>
+      <c r="N3">
+        <v>153.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>14</v>
@@ -634,10 +670,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01048689138576779</v>
+        <v>1.048689138576779</v>
       </c>
       <c r="F4" s="1">
-        <v>0.2857142857142857</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="G4" s="2">
         <v>34236.00844811073</v>
@@ -654,13 +690,22 @@
       <c r="K4" s="2">
         <v>12904.8841260866</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4">
+        <v>69.16365343052672</v>
+      </c>
+      <c r="M4">
+        <v>495</v>
+      </c>
+      <c r="N4">
+        <v>123.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>19</v>
@@ -669,10 +714,10 @@
         <v>7</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01423220973782771</v>
+        <v>1.423220973782771</v>
       </c>
       <c r="F5" s="1">
-        <v>0.3684210526315789</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="G5" s="2">
         <v>102481.8301235833</v>
@@ -689,13 +734,22 @@
       <c r="K5" s="2">
         <v>28456.51246193833</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5">
+        <v>95.50962732859578</v>
+      </c>
+      <c r="M5">
+        <v>1073</v>
+      </c>
+      <c r="N5">
+        <v>153.2857142857143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>21</v>
@@ -704,10 +758,10 @@
         <v>9</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01573033707865169</v>
+        <v>1.573033707865169</v>
       </c>
       <c r="F6" s="1">
-        <v>0.4285714285714285</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="G6" s="2">
         <v>115503.4749965145</v>
@@ -724,13 +778,22 @@
       <c r="K6" s="2">
         <v>41422.60130243778</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6">
+        <v>71.38657292738846</v>
+      </c>
+      <c r="M6">
+        <v>1618</v>
+      </c>
+      <c r="N6">
+        <v>179.7777777777778</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>40</v>
@@ -739,10 +802,10 @@
         <v>23</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0299625468164794</v>
+        <v>2.99625468164794</v>
       </c>
       <c r="F7" s="1">
-        <v>0.575</v>
+        <v>57.49999999999999</v>
       </c>
       <c r="G7" s="2">
         <v>511121.6114159022</v>
@@ -759,13 +822,22 @@
       <c r="K7" s="2">
         <v>75796.32738733107</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7">
+        <v>92.98191948624745</v>
+      </c>
+      <c r="M7">
+        <v>5497</v>
+      </c>
+      <c r="N7">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>11</v>
@@ -774,10 +846,10 @@
         <v>4</v>
       </c>
       <c r="E8" s="1">
-        <v>0.008239700374531835</v>
+        <v>0.8239700374531835</v>
       </c>
       <c r="F8" s="1">
-        <v>0.3636363636363636</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="G8" s="2">
         <v>72846.5544442175</v>
@@ -794,13 +866,22 @@
       <c r="K8" s="2">
         <v>39851.59699603717</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8">
+        <v>112.2443057692103</v>
+      </c>
+      <c r="M8">
+        <v>649</v>
+      </c>
+      <c r="N8">
+        <v>162.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>14</v>
@@ -809,10 +890,10 @@
         <v>10</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01048689138576779</v>
+        <v>1.048689138576779</v>
       </c>
       <c r="F9" s="1">
-        <v>0.7142857142857143</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="G9" s="2">
         <v>107857.9659594737</v>
@@ -829,13 +910,22 @@
       <c r="K9" s="2">
         <v>25867.99228157927</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9">
+        <v>55.85601551500451</v>
+      </c>
+      <c r="M9">
+        <v>1931</v>
+      </c>
+      <c r="N9">
+        <v>193.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -844,10 +934,10 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>0.002247191011235955</v>
+        <v>0.2247191011235955</v>
       </c>
       <c r="F10" s="1">
-        <v>0.3333333333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G10" s="2">
         <v>1952.95029044339</v>
@@ -864,13 +954,22 @@
       <c r="K10" s="2">
         <v>1952.95029044339</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10">
+        <v>52.78244028225377</v>
+      </c>
+      <c r="M10">
+        <v>37</v>
+      </c>
+      <c r="N10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>115</v>
@@ -879,10 +978,10 @@
         <v>67</v>
       </c>
       <c r="E11" s="1">
-        <v>0.08614232209737828</v>
+        <v>8.614232209737828</v>
       </c>
       <c r="F11" s="1">
-        <v>0.5826086956521739</v>
+        <v>58.26086956521739</v>
       </c>
       <c r="G11" s="2">
         <v>1822099.422383484</v>
@@ -899,13 +998,22 @@
       <c r="K11" s="2">
         <v>136747.5985390203</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11">
+        <v>84.51296022186848</v>
+      </c>
+      <c r="M11">
+        <v>21560</v>
+      </c>
+      <c r="N11">
+        <v>321.7910447761194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -914,10 +1022,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>0.00149812734082397</v>
+        <v>0.149812734082397</v>
       </c>
       <c r="F12" s="1">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="G12" s="2">
         <v>38755.99586972115</v>
@@ -934,13 +1042,22 @@
       <c r="K12" s="2">
         <v>38755.99586972115</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12">
+        <v>71.24263946639917</v>
+      </c>
+      <c r="M12">
+        <v>544</v>
+      </c>
+      <c r="N12">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -949,10 +1066,10 @@
         <v>2</v>
       </c>
       <c r="E13" s="1">
-        <v>0.00149812734082397</v>
+        <v>0.149812734082397</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G13" s="2">
         <v>16235.64915987027</v>
@@ -969,13 +1086,22 @@
       <c r="K13" s="2">
         <v>10341.29687648086</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13">
+        <v>67.93158644297183</v>
+      </c>
+      <c r="M13">
+        <v>239</v>
+      </c>
+      <c r="N13">
+        <v>119.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -984,10 +1110,10 @@
         <v>4</v>
       </c>
       <c r="E14" s="1">
-        <v>0.008988764044943821</v>
+        <v>0.8988764044943821</v>
       </c>
       <c r="F14" s="1">
-        <v>0.3333333333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G14" s="2">
         <v>122971.3839785512</v>
@@ -1004,13 +1130,22 @@
       <c r="K14" s="2">
         <v>34218.59792070687</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14">
+        <v>72.42130976357548</v>
+      </c>
+      <c r="M14">
+        <v>1698</v>
+      </c>
+      <c r="N14">
+        <v>424.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>20</v>
@@ -1019,10 +1154,10 @@
         <v>10</v>
       </c>
       <c r="E15" s="1">
-        <v>0.0149812734082397</v>
+        <v>1.49812734082397</v>
       </c>
       <c r="F15" s="1">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="G15" s="2">
         <v>291702.8936576058</v>
@@ -1039,13 +1174,22 @@
       <c r="K15" s="2">
         <v>56551.79581211559</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15">
+        <v>74.91086123718691</v>
+      </c>
+      <c r="M15">
+        <v>3894</v>
+      </c>
+      <c r="N15">
+        <v>389.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>41</v>
@@ -1054,10 +1198,10 @@
         <v>24</v>
       </c>
       <c r="E16" s="1">
-        <v>0.03071161048689139</v>
+        <v>3.071161048689139</v>
       </c>
       <c r="F16" s="1">
-        <v>0.5853658536585366</v>
+        <v>58.53658536585365</v>
       </c>
       <c r="G16" s="2">
         <v>352743.0792679603</v>
@@ -1074,13 +1218,22 @@
       <c r="K16" s="2">
         <v>42305.24595130414</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16">
+        <v>81.12766312510587</v>
+      </c>
+      <c r="M16">
+        <v>4348</v>
+      </c>
+      <c r="N16">
+        <v>181.1666666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>20</v>
@@ -1089,10 +1242,10 @@
         <v>13</v>
       </c>
       <c r="E17" s="1">
-        <v>0.0149812734082397</v>
+        <v>1.49812734082397</v>
       </c>
       <c r="F17" s="1">
-        <v>0.65</v>
+        <v>65</v>
       </c>
       <c r="G17" s="2">
         <v>223945.2628934602</v>
@@ -1109,13 +1262,22 @@
       <c r="K17" s="2">
         <v>39440.42378260842</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17">
+        <v>72.24040738498717</v>
+      </c>
+      <c r="M17">
+        <v>3100</v>
+      </c>
+      <c r="N17">
+        <v>238.4615384615385</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>81</v>
@@ -1124,10 +1286,10 @@
         <v>48</v>
       </c>
       <c r="E18" s="1">
-        <v>0.06067415730337079</v>
+        <v>6.067415730337078</v>
       </c>
       <c r="F18" s="1">
-        <v>0.5925925925925926</v>
+        <v>59.25925925925925</v>
       </c>
       <c r="G18" s="2">
         <v>1856539.789312486</v>
@@ -1144,13 +1306,22 @@
       <c r="K18" s="2">
         <v>537544.5528256212</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18">
+        <v>81.23123121034725</v>
+      </c>
+      <c r="M18">
+        <v>22855</v>
+      </c>
+      <c r="N18">
+        <v>476.1458333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>152</v>
@@ -1159,10 +1330,10 @@
         <v>94</v>
       </c>
       <c r="E19" s="1">
-        <v>0.1138576779026217</v>
+        <v>11.38576779026217</v>
       </c>
       <c r="F19" s="1">
-        <v>0.618421052631579</v>
+        <v>61.8421052631579</v>
       </c>
       <c r="G19" s="2">
         <v>1992588.121268719</v>
@@ -1179,13 +1350,22 @@
       <c r="K19" s="2">
         <v>154365.9837040891</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19">
+        <v>86.86464629097692</v>
+      </c>
+      <c r="M19">
+        <v>22939</v>
+      </c>
+      <c r="N19">
+        <v>244.031914893617</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>20</v>
@@ -1194,10 +1374,10 @@
         <v>11</v>
       </c>
       <c r="E20" s="1">
-        <v>0.0149812734082397</v>
+        <v>1.49812734082397</v>
       </c>
       <c r="F20" s="1">
-        <v>0.55</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="G20" s="2">
         <v>159498.0959887372</v>
@@ -1214,13 +1394,22 @@
       <c r="K20" s="2">
         <v>23993.89163144313</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20">
+        <v>92.89347465855401</v>
+      </c>
+      <c r="M20">
+        <v>1717</v>
+      </c>
+      <c r="N20">
+        <v>156.0909090909091</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1229,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000749063670411985</v>
+        <v>0.0749063670411985</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -1249,13 +1438,22 @@
       <c r="K21" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C22">
         <v>102</v>
@@ -1264,10 +1462,10 @@
         <v>67</v>
       </c>
       <c r="E22" s="1">
-        <v>0.07640449438202247</v>
+        <v>7.640449438202247</v>
       </c>
       <c r="F22" s="1">
-        <v>0.6568627450980392</v>
+        <v>65.68627450980392</v>
       </c>
       <c r="G22" s="2">
         <v>1556583.948998574</v>
@@ -1284,13 +1482,22 @@
       <c r="K22" s="2">
         <v>85108.67952264159</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22">
+        <v>82.90726758980419</v>
+      </c>
+      <c r="M22">
+        <v>18775</v>
+      </c>
+      <c r="N22">
+        <v>280.2238805970149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C23">
         <v>26</v>
@@ -1299,10 +1506,10 @@
         <v>14</v>
       </c>
       <c r="E23" s="1">
-        <v>0.01947565543071161</v>
+        <v>1.947565543071161</v>
       </c>
       <c r="F23" s="1">
-        <v>0.5384615384615384</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="G23" s="2">
         <v>380975.101404834</v>
@@ -1319,13 +1526,22 @@
       <c r="K23" s="2">
         <v>82775.69729329311</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23">
+        <v>106.1211981629064</v>
+      </c>
+      <c r="M23">
+        <v>3590</v>
+      </c>
+      <c r="N23">
+        <v>256.4285714285714</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1334,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000749063670411985</v>
+        <v>0.0749063670411985</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -1354,13 +1570,22 @@
       <c r="K24" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <v>609</v>
@@ -1369,10 +1594,10 @@
         <v>412</v>
       </c>
       <c r="E25" s="1">
-        <v>0.4561797752808989</v>
+        <v>45.61797752808989</v>
       </c>
       <c r="F25" s="1">
-        <v>0.6765188834154351</v>
+        <v>67.65188834154351</v>
       </c>
       <c r="G25" s="2">
         <v>14246781.42608317</v>
@@ -1389,13 +1614,22 @@
       <c r="K25" s="2">
         <v>679297.6600721752</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25">
+        <v>97.43054488687412</v>
+      </c>
+      <c r="M25">
+        <v>146225</v>
+      </c>
+      <c r="N25">
+        <v>354.9150485436893</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1404,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000749063670411985</v>
+        <v>0.0749063670411985</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -1424,13 +1658,22 @@
       <c r="K26" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -1439,10 +1682,10 @@
         <v>5</v>
       </c>
       <c r="E27" s="1">
-        <v>0.004087193460490463</v>
+        <v>0.4087193460490463</v>
       </c>
       <c r="F27" s="1">
-        <v>0.8333333333333334</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="G27" s="2">
         <v>20618.50345216123</v>
@@ -1459,13 +1702,22 @@
       <c r="K27" s="2">
         <v>8487.415853675509</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27">
+        <v>48.62854587773874</v>
+      </c>
+      <c r="M27">
+        <v>424</v>
+      </c>
+      <c r="N27">
+        <v>84.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -1474,10 +1726,10 @@
         <v>3</v>
       </c>
       <c r="E28" s="1">
-        <v>0.002724795640326975</v>
+        <v>0.2724795640326975</v>
       </c>
       <c r="F28" s="1">
-        <v>0.75</v>
+        <v>75</v>
       </c>
       <c r="G28" s="2">
         <v>5966.545308237623</v>
@@ -1494,13 +1746,22 @@
       <c r="K28" s="2">
         <v>3579.708858962807</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28">
+        <v>75.52588997769142</v>
+      </c>
+      <c r="M28">
+        <v>79</v>
+      </c>
+      <c r="N28">
+        <v>26.33333333333333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C29">
         <v>25</v>
@@ -1509,10 +1770,10 @@
         <v>21</v>
       </c>
       <c r="E29" s="1">
-        <v>0.0170299727520436</v>
+        <v>1.70299727520436</v>
       </c>
       <c r="F29" s="1">
-        <v>0.84</v>
+        <v>84</v>
       </c>
       <c r="G29" s="2">
         <v>130434.3625045102</v>
@@ -1529,13 +1790,22 @@
       <c r="K29" s="2">
         <v>39043.45605445375</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29">
+        <v>84.47821405732526</v>
+      </c>
+      <c r="M29">
+        <v>1544</v>
+      </c>
+      <c r="N29">
+        <v>73.52380952380952</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C30">
         <v>38</v>
@@ -1544,10 +1814,10 @@
         <v>37</v>
       </c>
       <c r="E30" s="1">
-        <v>0.02588555858310627</v>
+        <v>2.588555858310627</v>
       </c>
       <c r="F30" s="1">
-        <v>0.9736842105263158</v>
+        <v>97.36842105263158</v>
       </c>
       <c r="G30" s="2">
         <v>292839.6164911669</v>
@@ -1564,13 +1834,22 @@
       <c r="K30" s="2">
         <v>42352.39395260654</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30">
+        <v>83.21671397873456</v>
+      </c>
+      <c r="M30">
+        <v>3519</v>
+      </c>
+      <c r="N30">
+        <v>95.10810810810811</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -1579,10 +1858,10 @@
         <v>29</v>
       </c>
       <c r="E31" s="1">
-        <v>0.02043596730245232</v>
+        <v>2.043596730245232</v>
       </c>
       <c r="F31" s="1">
-        <v>0.9666666666666667</v>
+        <v>96.66666666666667</v>
       </c>
       <c r="G31" s="2">
         <v>141740.8312570402</v>
@@ -1599,13 +1878,22 @@
       <c r="K31" s="2">
         <v>19696.83604013923</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31">
+        <v>72.39061861953026</v>
+      </c>
+      <c r="M31">
+        <v>1958</v>
+      </c>
+      <c r="N31">
+        <v>67.51724137931035</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -1614,10 +1902,10 @@
         <v>3</v>
       </c>
       <c r="E32" s="1">
-        <v>0.004087193460490463</v>
+        <v>0.4087193460490463</v>
       </c>
       <c r="F32" s="1">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="G32" s="2">
         <v>19243.04699342476</v>
@@ -1634,13 +1922,22 @@
       <c r="K32" s="2">
         <v>10374.39174251279</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32">
+        <v>58.48950453928499</v>
+      </c>
+      <c r="M32">
+        <v>329</v>
+      </c>
+      <c r="N32">
+        <v>109.6666666666667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -1649,10 +1946,10 @@
         <v>5</v>
       </c>
       <c r="E33" s="1">
-        <v>0.004087193460490463</v>
+        <v>0.4087193460490463</v>
       </c>
       <c r="F33" s="1">
-        <v>0.8333333333333334</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="G33" s="2">
         <v>18754.47626807864</v>
@@ -1669,13 +1966,22 @@
       <c r="K33" s="2">
         <v>11657.12615038187</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33">
+        <v>97.17345216621055</v>
+      </c>
+      <c r="M33">
+        <v>193</v>
+      </c>
+      <c r="N33">
+        <v>38.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -1684,10 +1990,10 @@
         <v>4</v>
       </c>
       <c r="E34" s="1">
-        <v>0.002724795640326975</v>
+        <v>0.2724795640326975</v>
       </c>
       <c r="F34" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G34" s="2">
         <v>10257.69429433123</v>
@@ -1704,13 +2010,22 @@
       <c r="K34" s="2">
         <v>3759.167627206689</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="L34">
+        <v>50.28281516829033</v>
+      </c>
+      <c r="M34">
+        <v>204</v>
+      </c>
+      <c r="N34">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C35">
         <v>71</v>
@@ -1719,10 +2034,10 @@
         <v>67</v>
       </c>
       <c r="E35" s="1">
-        <v>0.04836512261580381</v>
+        <v>4.836512261580381</v>
       </c>
       <c r="F35" s="1">
-        <v>0.9436619718309859</v>
+        <v>94.36619718309859</v>
       </c>
       <c r="G35" s="2">
         <v>482605.551452325</v>
@@ -1739,13 +2054,22 @@
       <c r="K35" s="2">
         <v>55069.70060053065</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="L35">
+        <v>83.59701220376321</v>
+      </c>
+      <c r="M35">
+        <v>5773</v>
+      </c>
+      <c r="N35">
+        <v>86.16417910447761</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -1754,10 +2078,10 @@
         <v>5</v>
       </c>
       <c r="E36" s="1">
-        <v>0.004087193460490463</v>
+        <v>0.4087193460490463</v>
       </c>
       <c r="F36" s="1">
-        <v>0.8333333333333334</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="G36" s="2">
         <v>21988.60316765299</v>
@@ -1774,13 +2098,22 @@
       <c r="K36" s="2">
         <v>8364.984297387962</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="L36">
+        <v>65.44227133230056</v>
+      </c>
+      <c r="M36">
+        <v>336</v>
+      </c>
+      <c r="N36">
+        <v>67.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -1789,10 +2122,10 @@
         <v>2</v>
       </c>
       <c r="E37" s="1">
-        <v>0.001362397820163488</v>
+        <v>0.1362397820163488</v>
       </c>
       <c r="F37" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G37" s="2">
         <v>19225.06954124516</v>
@@ -1809,13 +2142,22 @@
       <c r="K37" s="2">
         <v>16770.93422522096</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="L37">
+        <v>74.80571805931967</v>
+      </c>
+      <c r="M37">
+        <v>257</v>
+      </c>
+      <c r="N37">
+        <v>128.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -1824,10 +2166,10 @@
         <v>5</v>
       </c>
       <c r="E38" s="1">
-        <v>0.004087193460490463</v>
+        <v>0.4087193460490463</v>
       </c>
       <c r="F38" s="1">
-        <v>0.8333333333333334</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="G38" s="2">
         <v>22468.65191389971</v>
@@ -1844,13 +2186,22 @@
       <c r="K38" s="2">
         <v>12609.40250609754</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="L38">
+        <v>51.18143943940708</v>
+      </c>
+      <c r="M38">
+        <v>439</v>
+      </c>
+      <c r="N38">
+        <v>87.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C39">
         <v>26</v>
@@ -1859,10 +2210,10 @@
         <v>25</v>
       </c>
       <c r="E39" s="1">
-        <v>0.01771117166212534</v>
+        <v>1.771117166212534</v>
       </c>
       <c r="F39" s="1">
-        <v>0.9615384615384616</v>
+        <v>96.15384615384616</v>
       </c>
       <c r="G39" s="2">
         <v>92454.99065463657</v>
@@ -1879,13 +2230,22 @@
       <c r="K39" s="2">
         <v>37589.60045184651</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="L39">
+        <v>67.78225121307666</v>
+      </c>
+      <c r="M39">
+        <v>1364</v>
+      </c>
+      <c r="N39">
+        <v>54.56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C40">
         <v>60</v>
@@ -1894,10 +2254,10 @@
         <v>58</v>
       </c>
       <c r="E40" s="1">
-        <v>0.04087193460490463</v>
+        <v>4.087193460490464</v>
       </c>
       <c r="F40" s="1">
-        <v>0.9666666666666667</v>
+        <v>96.66666666666667</v>
       </c>
       <c r="G40" s="2">
         <v>313526.5261875644</v>
@@ -1914,13 +2274,22 @@
       <c r="K40" s="2">
         <v>26068.8331005513</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="L40">
+        <v>63.62145417767135</v>
+      </c>
+      <c r="M40">
+        <v>4928</v>
+      </c>
+      <c r="N40">
+        <v>84.96551724137932</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C41">
         <v>10</v>
@@ -1929,10 +2298,10 @@
         <v>6</v>
       </c>
       <c r="E41" s="1">
-        <v>0.006811989100817439</v>
+        <v>0.6811989100817438</v>
       </c>
       <c r="F41" s="1">
-        <v>0.6</v>
+        <v>60</v>
       </c>
       <c r="G41" s="2">
         <v>29669.49341212535</v>
@@ -1949,13 +2318,22 @@
       <c r="K41" s="2">
         <v>13165.18530167379</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="L41">
+        <v>53.45854668851414</v>
+      </c>
+      <c r="M41">
+        <v>555</v>
+      </c>
+      <c r="N41">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C42">
         <v>64</v>
@@ -1964,10 +2342,10 @@
         <v>59</v>
       </c>
       <c r="E42" s="1">
-        <v>0.04359673024523161</v>
+        <v>4.35967302452316</v>
       </c>
       <c r="F42" s="1">
-        <v>0.921875</v>
+        <v>92.1875</v>
       </c>
       <c r="G42" s="2">
         <v>688481.1307944977</v>
@@ -1984,13 +2362,22 @@
       <c r="K42" s="2">
         <v>59310.53192065474</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="L42">
+        <v>71.34519490098421</v>
+      </c>
+      <c r="M42">
+        <v>9650</v>
+      </c>
+      <c r="N42">
+        <v>163.5593220338983</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C43">
         <v>163</v>
@@ -1999,10 +2386,10 @@
         <v>150</v>
       </c>
       <c r="E43" s="1">
-        <v>0.1110354223433243</v>
+        <v>11.10354223433242</v>
       </c>
       <c r="F43" s="1">
-        <v>0.9202453987730062</v>
+        <v>92.02453987730061</v>
       </c>
       <c r="G43" s="2">
         <v>2121729.295502074</v>
@@ -2019,13 +2406,22 @@
       <c r="K43" s="2">
         <v>142477.5688974962</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="L43">
+        <v>85.31279837161534</v>
+      </c>
+      <c r="M43">
+        <v>24870</v>
+      </c>
+      <c r="N43">
+        <v>165.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -2034,10 +2430,10 @@
         <v>3</v>
       </c>
       <c r="E44" s="1">
-        <v>0.004087193460490463</v>
+        <v>0.4087193460490463</v>
       </c>
       <c r="F44" s="1">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="G44" s="2">
         <v>25188.92013154799</v>
@@ -2054,13 +2450,22 @@
       <c r="K44" s="2">
         <v>21166.42737277812</v>
       </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="L44">
+        <v>90.93472971677974</v>
+      </c>
+      <c r="M44">
+        <v>277</v>
+      </c>
+      <c r="N44">
+        <v>92.33333333333333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -2069,10 +2474,10 @@
         <v>4</v>
       </c>
       <c r="E45" s="1">
-        <v>0.002724795640326975</v>
+        <v>0.2724795640326975</v>
       </c>
       <c r="F45" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G45" s="2">
         <v>5636.427833217705</v>
@@ -2089,13 +2494,22 @@
       <c r="K45" s="2">
         <v>3310.9589268623</v>
       </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="L45">
+        <v>35.90081422431659</v>
+      </c>
+      <c r="M45">
+        <v>157</v>
+      </c>
+      <c r="N45">
+        <v>39.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C46">
         <v>142</v>
@@ -2104,10 +2518,10 @@
         <v>141</v>
       </c>
       <c r="E46" s="1">
-        <v>0.09673024523160763</v>
+        <v>9.673024523160763</v>
       </c>
       <c r="F46" s="1">
-        <v>0.9929577464788732</v>
+        <v>99.29577464788733</v>
       </c>
       <c r="G46" s="2">
         <v>1762708.325463907</v>
@@ -2124,13 +2538,22 @@
       <c r="K46" s="2">
         <v>118699.0415875544</v>
       </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="L46">
+        <v>97.18316933862098</v>
+      </c>
+      <c r="M46">
+        <v>18138</v>
+      </c>
+      <c r="N46">
+        <v>128.6382978723404</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B47" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C47">
         <v>21</v>
@@ -2139,10 +2562,10 @@
         <v>18</v>
       </c>
       <c r="E47" s="1">
-        <v>0.01430517711171662</v>
+        <v>1.430517711171662</v>
       </c>
       <c r="F47" s="1">
-        <v>0.8571428571428571</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="G47" s="2">
         <v>88617.5736674378</v>
@@ -2159,13 +2582,22 @@
       <c r="K47" s="2">
         <v>28385.54066619448</v>
       </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="L47">
+        <v>72.3999784864688</v>
+      </c>
+      <c r="M47">
+        <v>1224</v>
+      </c>
+      <c r="N47">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -2174,10 +2606,10 @@
         <v>1</v>
       </c>
       <c r="E48" s="1">
-        <v>0.001362397820163488</v>
+        <v>0.1362397820163488</v>
       </c>
       <c r="F48" s="1">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="G48" s="2">
         <v>2029.958266796635</v>
@@ -2194,13 +2626,22 @@
       <c r="K48" s="2">
         <v>2029.958266796635</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="L48">
+        <v>36.90833212357519</v>
+      </c>
+      <c r="M48">
+        <v>55</v>
+      </c>
+      <c r="N48">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C49">
         <v>766</v>
@@ -2209,10 +2650,10 @@
         <v>732</v>
       </c>
       <c r="E49" s="1">
-        <v>0.5217983651226158</v>
+        <v>52.17983651226158</v>
       </c>
       <c r="F49" s="1">
-        <v>0.9556135770234987</v>
+        <v>95.56135770234987</v>
       </c>
       <c r="G49" s="2">
         <v>12045946.34300122</v>
@@ -2229,13 +2670,22 @@
       <c r="K49" s="2">
         <v>708972.7845446636</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="L49">
+        <v>94.57221187379758</v>
+      </c>
+      <c r="M49">
+        <v>127373</v>
+      </c>
+      <c r="N49">
+        <v>174.0068306010929</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -2244,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>0.007309941520467836</v>
+        <v>0.7309941520467835</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
@@ -2264,13 +2714,22 @@
       <c r="K50" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C51">
         <v>13</v>
@@ -2279,10 +2738,10 @@
         <v>1</v>
       </c>
       <c r="E51" s="1">
-        <v>0.01900584795321637</v>
+        <v>1.900584795321637</v>
       </c>
       <c r="F51" s="1">
-        <v>0.07692307692307693</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="G51" s="2">
         <v>2.022084306600051</v>
@@ -2299,13 +2758,22 @@
       <c r="K51" s="2">
         <v>2.022084306600051</v>
       </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="L51">
+        <v>1.011042153300025</v>
+      </c>
+      <c r="M51">
+        <v>2</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -2314,10 +2782,10 @@
         <v>1</v>
       </c>
       <c r="E52" s="1">
-        <v>0.002923976608187134</v>
+        <v>0.2923976608187134</v>
       </c>
       <c r="F52" s="1">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="G52" s="2">
         <v>70.01644246718027</v>
@@ -2334,13 +2802,22 @@
       <c r="K52" s="2">
         <v>70.01644246718027</v>
       </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="L52">
+        <v>70.01644246718027</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C53">
         <v>25</v>
@@ -2349,10 +2826,10 @@
         <v>4</v>
       </c>
       <c r="E53" s="1">
-        <v>0.03654970760233918</v>
+        <v>3.654970760233918</v>
       </c>
       <c r="F53" s="1">
-        <v>0.16</v>
+        <v>16</v>
       </c>
       <c r="G53" s="2">
         <v>392.1183311220419</v>
@@ -2369,13 +2846,22 @@
       <c r="K53" s="2">
         <v>127.073389822705</v>
       </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="L53">
+        <v>32.67652759350349</v>
+      </c>
+      <c r="M53">
+        <v>12</v>
+      </c>
+      <c r="N53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C54">
         <v>26</v>
@@ -2384,10 +2870,10 @@
         <v>8</v>
       </c>
       <c r="E54" s="1">
-        <v>0.03801169590643275</v>
+        <v>3.801169590643275</v>
       </c>
       <c r="F54" s="1">
-        <v>0.3076923076923077</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="G54" s="2">
         <v>615.9557450983459</v>
@@ -2404,13 +2890,22 @@
       <c r="K54" s="2">
         <v>252.2313949797012</v>
       </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="L54">
+        <v>25.66482271243108</v>
+      </c>
+      <c r="M54">
+        <v>24</v>
+      </c>
+      <c r="N54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C55">
         <v>10</v>
@@ -2419,10 +2914,10 @@
         <v>5</v>
       </c>
       <c r="E55" s="1">
-        <v>0.01461988304093567</v>
+        <v>1.461988304093567</v>
       </c>
       <c r="F55" s="1">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="G55" s="2">
         <v>1789.000843037876</v>
@@ -2439,13 +2934,22 @@
       <c r="K55" s="2">
         <v>606.0385278682269</v>
       </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="L55">
+        <v>9.618284102354172</v>
+      </c>
+      <c r="M55">
+        <v>186</v>
+      </c>
+      <c r="N55">
+        <v>37.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C56">
         <v>12</v>
@@ -2454,10 +2958,10 @@
         <v>5</v>
       </c>
       <c r="E56" s="1">
-        <v>0.01754385964912281</v>
+        <v>1.754385964912281</v>
       </c>
       <c r="F56" s="1">
-        <v>0.4166666666666667</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="G56" s="2">
         <v>476.3857300579342</v>
@@ -2474,13 +2978,22 @@
       <c r="K56" s="2">
         <v>344.6924526172948</v>
       </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="L56">
+        <v>17.64391592807164</v>
+      </c>
+      <c r="M56">
+        <v>27</v>
+      </c>
+      <c r="N56">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C57">
         <v>6</v>
@@ -2489,10 +3002,10 @@
         <v>1</v>
       </c>
       <c r="E57" s="1">
-        <v>0.008771929824561403</v>
+        <v>0.8771929824561403</v>
       </c>
       <c r="F57" s="1">
-        <v>0.1666666666666667</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="G57" s="2">
         <v>277.4670273702479</v>
@@ -2509,13 +3022,22 @@
       <c r="K57" s="2">
         <v>277.4670273702479</v>
       </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="L57">
+        <v>14.60352775632884</v>
+      </c>
+      <c r="M57">
+        <v>19</v>
+      </c>
+      <c r="N57">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C58">
         <v>11</v>
@@ -2524,10 +3046,10 @@
         <v>2</v>
       </c>
       <c r="E58" s="1">
-        <v>0.01608187134502924</v>
+        <v>1.608187134502924</v>
       </c>
       <c r="F58" s="1">
-        <v>0.1818181818181818</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="G58" s="2">
         <v>55.76324071713179</v>
@@ -2544,13 +3066,22 @@
       <c r="K58" s="2">
         <v>49.13605229220246</v>
       </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="L58">
+        <v>9.293873452855298</v>
+      </c>
+      <c r="M58">
+        <v>6</v>
+      </c>
+      <c r="N58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C59">
         <v>62</v>
@@ -2559,10 +3090,10 @@
         <v>10</v>
       </c>
       <c r="E59" s="1">
-        <v>0.09064327485380116</v>
+        <v>9.064327485380117</v>
       </c>
       <c r="F59" s="1">
-        <v>0.1612903225806452</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="G59" s="2">
         <v>4465.642445224071</v>
@@ -2579,13 +3110,22 @@
       <c r="K59" s="2">
         <v>3475.049171548047</v>
       </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="L59">
+        <v>19.16584740439515</v>
+      </c>
+      <c r="M59">
+        <v>233</v>
+      </c>
+      <c r="N59">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2594,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>0.001461988304093567</v>
+        <v>0.1461988304093567</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
@@ -2614,13 +3154,22 @@
       <c r="K60" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C61">
         <v>16</v>
@@ -2629,10 +3178,10 @@
         <v>4</v>
       </c>
       <c r="E61" s="1">
-        <v>0.02339181286549707</v>
+        <v>2.339181286549707</v>
       </c>
       <c r="F61" s="1">
-        <v>0.25</v>
+        <v>25</v>
       </c>
       <c r="G61" s="2">
         <v>293.8673614519045</v>
@@ -2649,13 +3198,22 @@
       <c r="K61" s="2">
         <v>157.7614196343105</v>
       </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="L61">
+        <v>19.59115743012696</v>
+      </c>
+      <c r="M61">
+        <v>15</v>
+      </c>
+      <c r="N61">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C62">
         <v>11</v>
@@ -2664,10 +3222,10 @@
         <v>1</v>
       </c>
       <c r="E62" s="1">
-        <v>0.01608187134502924</v>
+        <v>1.608187134502924</v>
       </c>
       <c r="F62" s="1">
-        <v>0.09090909090909091</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="G62" s="2">
         <v>140.1770087811759</v>
@@ -2684,13 +3242,22 @@
       <c r="K62" s="2">
         <v>140.1770087811759</v>
       </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="L62">
+        <v>28.03540175623518</v>
+      </c>
+      <c r="M62">
+        <v>5</v>
+      </c>
+      <c r="N62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C63">
         <v>23</v>
@@ -2699,10 +3266,10 @@
         <v>6</v>
       </c>
       <c r="E63" s="1">
-        <v>0.03362573099415204</v>
+        <v>3.362573099415204</v>
       </c>
       <c r="F63" s="1">
-        <v>0.2608695652173913</v>
+        <v>26.08695652173913</v>
       </c>
       <c r="G63" s="2">
         <v>1088.702851469992</v>
@@ -2719,13 +3286,22 @@
       <c r="K63" s="2">
         <v>538.0691152081814</v>
       </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="L63">
+        <v>17.01098205421863</v>
+      </c>
+      <c r="M63">
+        <v>64</v>
+      </c>
+      <c r="N63">
+        <v>10.66666666666667</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C64">
         <v>7</v>
@@ -2734,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>0.01023391812865497</v>
+        <v>1.023391812865497</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
@@ -2754,13 +3330,22 @@
       <c r="K64" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C65">
         <v>42</v>
@@ -2769,10 +3354,10 @@
         <v>12</v>
       </c>
       <c r="E65" s="1">
-        <v>0.06140350877192982</v>
+        <v>6.140350877192982</v>
       </c>
       <c r="F65" s="1">
-        <v>0.2857142857142857</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="G65" s="2">
         <v>4227.195046500177</v>
@@ -2789,13 +3374,22 @@
       <c r="K65" s="2">
         <v>1809.09852121176</v>
       </c>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="L65">
+        <v>17.91184341737363</v>
+      </c>
+      <c r="M65">
+        <v>236</v>
+      </c>
+      <c r="N65">
+        <v>19.66666666666667</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B66" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C66">
         <v>86</v>
@@ -2804,10 +3398,10 @@
         <v>22</v>
       </c>
       <c r="E66" s="1">
-        <v>0.1257309941520468</v>
+        <v>12.57309941520468</v>
       </c>
       <c r="F66" s="1">
-        <v>0.2558139534883721</v>
+        <v>25.58139534883721</v>
       </c>
       <c r="G66" s="2">
         <v>6116.277691639392</v>
@@ -2824,13 +3418,22 @@
       <c r="K66" s="2">
         <v>1594.029696524064</v>
       </c>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="L66">
+        <v>24.27094322079124</v>
+      </c>
+      <c r="M66">
+        <v>252</v>
+      </c>
+      <c r="N66">
+        <v>11.45454545454546</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>7</v>
@@ -2839,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="1">
-        <v>0.01023391812865497</v>
+        <v>1.023391812865497</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
@@ -2859,13 +3462,22 @@
       <c r="K67" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B68" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -2874,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="1">
-        <v>0.002923976608187134</v>
+        <v>0.2923976608187134</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
@@ -2894,13 +3506,22 @@
       <c r="K68" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C69">
         <v>55</v>
@@ -2909,10 +3530,10 @@
         <v>14</v>
       </c>
       <c r="E69" s="1">
-        <v>0.08040935672514619</v>
+        <v>8.040935672514619</v>
       </c>
       <c r="F69" s="1">
-        <v>0.2545454545454545</v>
+        <v>25.45454545454545</v>
       </c>
       <c r="G69" s="2">
         <v>4193.00279039306</v>
@@ -2929,13 +3550,22 @@
       <c r="K69" s="2">
         <v>657.0789958678034</v>
       </c>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="L69">
+        <v>19.8720511393036</v>
+      </c>
+      <c r="M69">
+        <v>211</v>
+      </c>
+      <c r="N69">
+        <v>15.07142857142857</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B70" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C70">
         <v>14</v>
@@ -2944,10 +3574,10 @@
         <v>2</v>
       </c>
       <c r="E70" s="1">
-        <v>0.02046783625730994</v>
+        <v>2.046783625730994</v>
       </c>
       <c r="F70" s="1">
-        <v>0.1428571428571428</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="G70" s="2">
         <v>2207.972467118993</v>
@@ -2964,13 +3594,22 @@
       <c r="K70" s="2">
         <v>1753.365733305352</v>
       </c>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="L70">
+        <v>24.80867940583138</v>
+      </c>
+      <c r="M70">
+        <v>89</v>
+      </c>
+      <c r="N70">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B71" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C71">
         <v>10</v>
@@ -2979,10 +3618,10 @@
         <v>1</v>
       </c>
       <c r="E71" s="1">
-        <v>0.01461988304093567</v>
+        <v>1.461988304093567</v>
       </c>
       <c r="F71" s="1">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2">
         <v>53.85819572145232</v>
@@ -2999,13 +3638,22 @@
       <c r="K71" s="2">
         <v>53.85819572145232</v>
       </c>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="L71">
+        <v>53.85819572145232</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C72">
         <v>229</v>
@@ -3014,10 +3662,10 @@
         <v>53</v>
       </c>
       <c r="E72" s="1">
-        <v>0.3347953216374269</v>
+        <v>33.47953216374269</v>
       </c>
       <c r="F72" s="1">
-        <v>0.2314410480349345</v>
+        <v>23.14410480349345</v>
       </c>
       <c r="G72" s="2">
         <v>16721.53245230723</v>
@@ -3034,13 +3682,22 @@
       <c r="K72" s="2">
         <v>5087.076865717208</v>
       </c>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="L72">
+        <v>20.26852418461482</v>
+      </c>
+      <c r="M72">
+        <v>825</v>
+      </c>
+      <c r="N72">
+        <v>15.56603773584906</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -3049,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="1">
-        <v>0.001461988304093567</v>
+        <v>0.1461988304093567</v>
       </c>
       <c r="F73" s="1">
         <v>0</v>
@@ -3069,13 +3726,22 @@
       <c r="K73" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:11">
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C74">
         <v>8</v>
@@ -3084,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="1">
-        <v>0.01169590643274854</v>
+        <v>1.169590643274854</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
@@ -3102,6 +3768,15 @@
         <v>0</v>
       </c>
       <c r="K74" s="2">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
         <v>0</v>
       </c>
     </row>
